--- a/Client/ExcelToJson/Excel/英雄配置表.xlsx
+++ b/Client/ExcelToJson/Excel/英雄配置表.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="15345" windowHeight="24975" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
     <sheet name="HeroSkillConfig" sheetId="2" r:id="rId2"/>
     <sheet name="HeroBuffConfig" sheetId="4" r:id="rId3"/>
+    <sheet name="TrapConfig" sheetId="5" r:id="rId4"/>
+    <sheet name="TrapSkillConfig" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HeroSkillConfig!#REF!</definedName>
@@ -138,8 +140,76 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>拉莱耶</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>拉莱耶:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1攻击型
+2buff型
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>拉莱耶</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>拉莱耶:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1CD触发
+2进入触发
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="157">
   <si>
     <t>Id</t>
   </si>
@@ -500,16 +570,145 @@
     <t>生效值</t>
   </si>
   <si>
+    <t>冰霜0.2</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Prefab/Buff/Buff1.prefab</t>
+  </si>
+  <si>
+    <t>火焰</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Prefab/Buff/Buff2.prefab</t>
+  </si>
+  <si>
+    <t>毒液</t>
+  </si>
+  <si>
+    <t>落石</t>
+  </si>
+  <si>
+    <t>地穴</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
+    <t>冰霜0.5</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>陷阱Id</t>
+  </si>
+  <si>
+    <t>陷阱类型</t>
+  </si>
+  <si>
+    <t>陷阱等级</t>
+  </si>
+  <si>
+    <t>icon图片</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>攻击技能</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Texture/trap/img_trap_hy.png</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Prefab/Trap/Trap1.prefab</t>
+  </si>
+  <si>
+    <t>岩浆</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Texture/trap/img_trap_yj.png</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Prefab/Trap/Trap2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Texture/trap/img_trap_ls.png</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Prefab/Trap/Trap3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Texture/trap/img_trap_dx.png</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Prefab/Trap/Trap4.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Texture/trap/img_trap_dy.png</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Prefab/Trap/Trap5.prefab</t>
+  </si>
+  <si>
     <t>冰霜</t>
   </si>
   <si>
-    <t>Assets/Res/Game/Prefab/Buff/Buff1.prefab</t>
-  </si>
-  <si>
-    <t>火焰</t>
-  </si>
-  <si>
-    <t>Assets/Res/Game/Prefab/Buff/Buff2.prefab</t>
+    <t>Assets/Res/Game/Texture/trap/img_trap_bs.png</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Prefab/Trap/Trap6.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Texture/trap/img_trap_bd.png</t>
+  </si>
+  <si>
+    <t>Assets/Res/Game/Prefab/Trap/Trap7.prefab</t>
+  </si>
+  <si>
+    <t>陷阱火焰攻击</t>
+  </si>
+  <si>
+    <t>放置一个火焰陷阱，经过陷阱的NPC将受到100%伤害</t>
+  </si>
+  <si>
+    <t>陷阱岩浆攻击</t>
+  </si>
+  <si>
+    <t>放置一个岩浆陷阱，经过陷阱的NPC将受到100%伤害，并赋予灼烧伤害每秒收到100%伤害，持续2秒</t>
+  </si>
+  <si>
+    <t>陷阱落石攻击</t>
+  </si>
+  <si>
+    <t>放置一个落石陷阱，经过陷阱的NPC将受到50%伤害，并短暂的眩晕0.5秒</t>
+  </si>
+  <si>
+    <t>陷阱地穴攻击</t>
+  </si>
+  <si>
+    <t>放置一个地穴陷阱，经过陷阱的NPC或被困住2秒，每个地穴只能困住一个NPC</t>
+  </si>
+  <si>
+    <t>陷阱毒液攻击</t>
+  </si>
+  <si>
+    <t>放置一个毒液陷阱，经过陷阱的NPC将会被赋予中毒效果，每秒收到50%伤害，持续5秒。</t>
+  </si>
+  <si>
+    <t>陷阱冰霜攻击</t>
+  </si>
+  <si>
+    <t>放置一个冰霜陷阱，经过陷阱的NPC将被赋予冰霜效果，降低移动速度50%并持续3秒</t>
+  </si>
+  <si>
+    <t>陷阱冰冻攻击</t>
+  </si>
+  <si>
+    <t>放置一个冰冻陷阱，经过陷阱的NPC将被赋予3秒的冰冻效果，无法移动，每3秒触发一次。</t>
   </si>
 </sst>
 </file>
@@ -522,14 +721,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,13 +874,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -700,12 +885,30 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -877,12 +1080,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -906,7 +1103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -932,6 +1129,19 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
       <top style="thin">
         <color theme="4" tint="0.399975585192419"/>
       </top>
@@ -1058,155 +1268,170 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,8 +1534,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="C3:I7" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C3:I7" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="C3:I12" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C3:I12" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Type"/>
@@ -1319,6 +1544,42 @@
     <tableColumn id="3" name="ContinuedTime"/>
     <tableColumn id="4" name="Interval"/>
     <tableColumn id="5" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表5_4" displayName="表5_4" ref="C3:K75" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C3:K75" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="9" name="Level"/>
+    <tableColumn id="3" name="Desc"/>
+    <tableColumn id="8" name="icon"/>
+    <tableColumn id="4" name="res"/>
+    <tableColumn id="5" name="Atk"/>
+    <tableColumn id="6" name="Attack"/>
+    <tableColumn id="7" name="BuffId"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表2_5" displayName="表2_5" ref="C3:K12" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C3:K12" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="SkillType"/>
+    <tableColumn id="4" name="Desc"/>
+    <tableColumn id="5" name="Res"/>
+    <tableColumn id="7" name="Num"/>
+    <tableColumn id="6" name="Cd"/>
+    <tableColumn id="9" name="Hurt"/>
+    <tableColumn id="10" name="BuffId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1577,7 +1838,7 @@
   <dimension ref="C3:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1689,16 +1950,16 @@
       </c>
     </row>
     <row r="6" spans="3:10">
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>2001</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
       <c r="G6">
@@ -1715,13 +1976,13 @@
       </c>
     </row>
     <row r="7" spans="3:10">
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>2002</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F7">
@@ -1735,13 +1996,13 @@
       </c>
     </row>
     <row r="8" spans="3:10">
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>2003</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8">
@@ -1755,13 +2016,13 @@
       </c>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>2004</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F9">
@@ -1775,13 +2036,13 @@
       </c>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>2005</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F10">
@@ -1795,13 +2056,13 @@
       </c>
     </row>
     <row r="11" spans="3:10">
-      <c r="C11" s="3">
+      <c r="C11" s="9">
         <v>2006</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F11">
@@ -1815,13 +2076,13 @@
       </c>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="3">
+      <c r="C12" s="9">
         <v>2007</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F12">
@@ -1835,13 +2096,13 @@
       </c>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <v>2008</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F13">
@@ -1855,13 +2116,13 @@
       </c>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <v>2009</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F14">
@@ -1875,13 +2136,13 @@
       </c>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <v>2010</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F15">
@@ -1895,13 +2156,13 @@
       </c>
     </row>
     <row r="16" spans="3:10">
-      <c r="C16" s="4">
+      <c r="C16" s="10">
         <v>2011</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F16">
@@ -1915,13 +2176,13 @@
       </c>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="4">
+      <c r="C17" s="10">
         <v>2012</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F17">
@@ -1935,13 +2196,13 @@
       </c>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="4">
+      <c r="C18" s="10">
         <v>2013</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F18">
@@ -1955,13 +2216,13 @@
       </c>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="4">
+      <c r="C19" s="10">
         <v>2014</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F19">
@@ -1975,13 +2236,13 @@
       </c>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="4">
+      <c r="C20" s="10">
         <v>2015</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F20">
@@ -1995,13 +2256,13 @@
       </c>
     </row>
     <row r="21" spans="3:10">
-      <c r="C21" s="5">
+      <c r="C21" s="11">
         <v>2101</v>
       </c>
       <c r="D21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F21">
@@ -2015,13 +2276,13 @@
       </c>
     </row>
     <row r="22" spans="3:10">
-      <c r="C22" s="5">
+      <c r="C22" s="11">
         <v>2102</v>
       </c>
       <c r="D22" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F22">
@@ -2035,13 +2296,13 @@
       </c>
     </row>
     <row r="23" spans="3:10">
-      <c r="C23" s="5">
+      <c r="C23" s="11">
         <v>2103</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="11" t="s">
         <v>48</v>
       </c>
       <c r="F23">
@@ -2055,13 +2316,13 @@
       </c>
     </row>
     <row r="24" spans="3:10">
-      <c r="C24" s="5">
+      <c r="C24" s="11">
         <v>2104</v>
       </c>
       <c r="D24" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F24">
@@ -2075,13 +2336,13 @@
       </c>
     </row>
     <row r="25" spans="3:10">
-      <c r="C25" s="5">
+      <c r="C25" s="11">
         <v>2105</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F25">
@@ -2095,13 +2356,13 @@
       </c>
     </row>
     <row r="26" customFormat="1" spans="3:12">
-      <c r="C26" s="6">
+      <c r="C26" s="12">
         <v>2201</v>
       </c>
       <c r="D26" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F26">
@@ -2113,18 +2374,18 @@
       <c r="J26">
         <v>300001</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="15" spans="3:12">
-      <c r="C27" s="6">
+      <c r="C27" s="12">
         <v>2202</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="13" t="s">
         <v>53</v>
       </c>
       <c r="F27">
@@ -2136,18 +2397,18 @@
       <c r="J27">
         <v>300002</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="3:12">
-      <c r="C28" s="6">
+      <c r="C28" s="12">
         <v>2203</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="13" t="s">
         <v>55</v>
       </c>
       <c r="F28">
@@ -2159,18 +2420,18 @@
       <c r="J28">
         <v>300003</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:12">
-      <c r="C29" s="6">
+      <c r="C29" s="12">
         <v>2204</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F29">
@@ -2182,7 +2443,7 @@
       <c r="J29">
         <v>300004</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2202,8 +2463,8 @@
   <sheetPr/>
   <dimension ref="C3:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2569,16 +2830,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I7"/>
+  <dimension ref="C3:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="17.125" customWidth="1"/>
   </cols>
@@ -2696,6 +2957,2357 @@
       </c>
       <c r="I7">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8">
+        <v>450003</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9">
+        <v>450004</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10">
+        <v>450005</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11">
+        <v>450006</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12">
+        <v>450007</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:K75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="45.125" customWidth="1"/>
+    <col min="8" max="8" width="47.5" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="1" spans="3:11">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="3:11">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="3:11">
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="3:10">
+      <c r="C6">
+        <v>3001</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="3:10">
+      <c r="C7">
+        <v>3002</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8">
+        <v>3003</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9">
+        <v>3004</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10">
+        <v>3005</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11">
+        <v>3006</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11">
+        <v>120</v>
+      </c>
+      <c r="J11">
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12">
+        <v>3007</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12">
+        <v>140</v>
+      </c>
+      <c r="J12">
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13">
+        <v>3008</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13">
+        <v>160</v>
+      </c>
+      <c r="J13">
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14">
+        <v>3009</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14">
+        <v>180</v>
+      </c>
+      <c r="J14">
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15">
+        <v>3010</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15">
+        <v>200</v>
+      </c>
+      <c r="J15">
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16">
+        <v>3011</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="3">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3">
+        <v>400002</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17">
+        <v>3012</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>400002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18">
+        <v>3013</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="J18" s="3">
+        <v>400002</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19">
+        <v>3014</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="3">
+        <v>40</v>
+      </c>
+      <c r="J19">
+        <v>400002</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20">
+        <v>3015</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20">
+        <v>50</v>
+      </c>
+      <c r="J20" s="3">
+        <v>400002</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21">
+        <v>3016</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+      <c r="J21">
+        <v>400002</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22">
+        <v>3017</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="3">
+        <v>70</v>
+      </c>
+      <c r="J22" s="3">
+        <v>400002</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23">
+        <v>3018</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23">
+        <v>80</v>
+      </c>
+      <c r="J23">
+        <v>400002</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24">
+        <v>3019</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24">
+        <v>90</v>
+      </c>
+      <c r="J24" s="3">
+        <v>400002</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25">
+        <v>3020</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="3">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>400002</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="3:11">
+      <c r="C26">
+        <v>3021</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" s="4">
+        <v>50</v>
+      </c>
+      <c r="J26">
+        <v>400003</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27">
+        <v>3022</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27">
+        <v>70</v>
+      </c>
+      <c r="J27">
+        <v>400003</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28">
+        <v>3023</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="4">
+        <v>90</v>
+      </c>
+      <c r="J28">
+        <v>400003</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29">
+        <v>3024</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29">
+        <v>110</v>
+      </c>
+      <c r="J29">
+        <v>400003</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30">
+        <v>3025</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="4">
+        <v>130</v>
+      </c>
+      <c r="J30">
+        <v>400003</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31">
+        <v>3026</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31">
+        <v>150</v>
+      </c>
+      <c r="J31">
+        <v>400003</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32">
+        <v>3027</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4">
+        <v>7</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="4">
+        <v>170</v>
+      </c>
+      <c r="J32">
+        <v>400003</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33">
+        <v>3028</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I33">
+        <v>190</v>
+      </c>
+      <c r="J33">
+        <v>400003</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34">
+        <v>3029</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4">
+        <v>9</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="4">
+        <v>210</v>
+      </c>
+      <c r="J34">
+        <v>400003</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35">
+        <v>3030</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35">
+        <v>230</v>
+      </c>
+      <c r="J35">
+        <v>400003</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="3:11">
+      <c r="C36">
+        <v>3031</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I36" s="3">
+        <v>50</v>
+      </c>
+      <c r="J36" s="3">
+        <v>400004</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37">
+        <v>3032</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37">
+        <v>70</v>
+      </c>
+      <c r="J37">
+        <v>400004</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38">
+        <v>3033</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="3">
+        <v>90</v>
+      </c>
+      <c r="J38" s="3">
+        <v>400004</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39">
+        <v>3034</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39">
+        <v>110</v>
+      </c>
+      <c r="J39">
+        <v>400004</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40">
+        <v>3035</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" s="3">
+        <v>130</v>
+      </c>
+      <c r="J40" s="3">
+        <v>400004</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41">
+        <v>3036</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41">
+        <v>150</v>
+      </c>
+      <c r="J41">
+        <v>400004</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42">
+        <v>3037</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" s="3">
+        <v>170</v>
+      </c>
+      <c r="J42" s="3">
+        <v>400004</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43">
+        <v>3038</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43">
+        <v>190</v>
+      </c>
+      <c r="J43">
+        <v>400004</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44">
+        <v>3039</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" s="3">
+        <v>210</v>
+      </c>
+      <c r="J44" s="3">
+        <v>400004</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45">
+        <v>3040</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45">
+        <v>230</v>
+      </c>
+      <c r="J45">
+        <v>400004</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="3:11">
+      <c r="C46">
+        <v>3041</v>
+      </c>
+      <c r="D46" s="4">
+        <v>5</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" s="4">
+        <v>10</v>
+      </c>
+      <c r="J46" s="4">
+        <v>400005</v>
+      </c>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47">
+        <v>3042</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47">
+        <v>30</v>
+      </c>
+      <c r="J47">
+        <v>400005</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48">
+        <v>3043</v>
+      </c>
+      <c r="D48" s="4">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I48" s="4">
+        <v>50</v>
+      </c>
+      <c r="J48" s="4">
+        <v>400005</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49">
+        <v>3044</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" s="4">
+        <v>4</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" t="s">
+        <v>137</v>
+      </c>
+      <c r="I49">
+        <v>70</v>
+      </c>
+      <c r="J49">
+        <v>400005</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50">
+        <v>3045</v>
+      </c>
+      <c r="D50" s="4">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I50" s="4">
+        <v>90</v>
+      </c>
+      <c r="J50" s="4">
+        <v>400005</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51">
+        <v>3046</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" t="s">
+        <v>137</v>
+      </c>
+      <c r="I51">
+        <v>110</v>
+      </c>
+      <c r="J51">
+        <v>400005</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52">
+        <v>3047</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5</v>
+      </c>
+      <c r="E52" s="4">
+        <v>7</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" s="4">
+        <v>130</v>
+      </c>
+      <c r="J52" s="4">
+        <v>400005</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53">
+        <v>3048</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53">
+        <v>150</v>
+      </c>
+      <c r="J53">
+        <v>400005</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54">
+        <v>3049</v>
+      </c>
+      <c r="D54" s="4">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I54" s="4">
+        <v>170</v>
+      </c>
+      <c r="J54" s="4">
+        <v>400005</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="C55">
+        <v>3050</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" s="4">
+        <v>10</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" t="s">
+        <v>137</v>
+      </c>
+      <c r="I55">
+        <v>190</v>
+      </c>
+      <c r="J55">
+        <v>400005</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="3:11">
+      <c r="C56">
+        <v>3051</v>
+      </c>
+      <c r="D56" s="3">
+        <v>6</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>400006</v>
+      </c>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="C57">
+        <v>3052</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" t="s">
+        <v>140</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>400006</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="C58">
+        <v>3053</v>
+      </c>
+      <c r="D58" s="3">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>400006</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="C59">
+        <v>3054</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" t="s">
+        <v>140</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>400006</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="C60">
+        <v>3055</v>
+      </c>
+      <c r="D60" s="3">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>400006</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="C61">
+        <v>3056</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>138</v>
+      </c>
+      <c r="G61" t="s">
+        <v>139</v>
+      </c>
+      <c r="H61" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>400006</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="C62">
+        <v>3057</v>
+      </c>
+      <c r="D62" s="3">
+        <v>6</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>400006</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="C63">
+        <v>3058</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>138</v>
+      </c>
+      <c r="G63" t="s">
+        <v>139</v>
+      </c>
+      <c r="H63" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>400006</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="C64">
+        <v>3059</v>
+      </c>
+      <c r="D64" s="3">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>9</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
+        <v>400006</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10">
+      <c r="C65">
+        <v>3060</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65" s="3">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>400006</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="3:11">
+      <c r="C66">
+        <v>3061</v>
+      </c>
+      <c r="D66" s="4">
+        <v>7</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <v>400007</v>
+      </c>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="3:10">
+      <c r="C67">
+        <v>3062</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>117</v>
+      </c>
+      <c r="G67" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" t="s">
+        <v>142</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>400007</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10">
+      <c r="C68">
+        <v>3063</v>
+      </c>
+      <c r="D68" s="4">
+        <v>7</v>
+      </c>
+      <c r="E68" s="4">
+        <v>3</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <v>400007</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10">
+      <c r="C69">
+        <v>3064</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>117</v>
+      </c>
+      <c r="G69" t="s">
+        <v>141</v>
+      </c>
+      <c r="H69" t="s">
+        <v>142</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>400007</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10">
+      <c r="C70">
+        <v>3065</v>
+      </c>
+      <c r="D70" s="4">
+        <v>7</v>
+      </c>
+      <c r="E70" s="4">
+        <v>5</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
+        <v>400007</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10">
+      <c r="C71">
+        <v>3066</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>117</v>
+      </c>
+      <c r="G71" t="s">
+        <v>141</v>
+      </c>
+      <c r="H71" t="s">
+        <v>142</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>400007</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10">
+      <c r="C72">
+        <v>3067</v>
+      </c>
+      <c r="D72" s="4">
+        <v>7</v>
+      </c>
+      <c r="E72" s="4">
+        <v>7</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>400007</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10">
+      <c r="C73">
+        <v>3068</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>117</v>
+      </c>
+      <c r="G73" t="s">
+        <v>141</v>
+      </c>
+      <c r="H73" t="s">
+        <v>142</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>400007</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10">
+      <c r="C74">
+        <v>3069</v>
+      </c>
+      <c r="D74" s="4">
+        <v>7</v>
+      </c>
+      <c r="E74" s="4">
+        <v>9</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <v>400007</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10">
+      <c r="C75">
+        <v>3070</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>117</v>
+      </c>
+      <c r="G75" t="s">
+        <v>141</v>
+      </c>
+      <c r="H75" t="s">
+        <v>142</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>400007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="31.375" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="1" spans="3:11">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="3:11">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="3:11">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="27" spans="3:10">
+      <c r="C6">
+        <v>400001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="54" spans="3:11">
+      <c r="C7">
+        <v>400002</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>450002</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="40.5" spans="3:11">
+      <c r="C8">
+        <v>400003</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>450004</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="40.5" spans="3:11">
+      <c r="C9">
+        <v>400004</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>450004</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="54" spans="3:11">
+      <c r="C10">
+        <v>400005</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>450003</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="54" spans="3:11">
+      <c r="C11">
+        <v>400006</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>450007</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="54" spans="3:11">
+      <c r="C12">
+        <v>400007</v>
+      </c>
+      <c r="D12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>450006</v>
       </c>
     </row>
   </sheetData>
